--- a/output/fit_clients/fit_round_204.xlsx
+++ b/output/fit_clients/fit_round_204.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1602524817.414829</v>
+        <v>2360305243.253157</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09583902154397485</v>
+        <v>0.08280012304391754</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04037841586831398</v>
+        <v>0.03899508989373926</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>801262350.8594908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2620339410.380603</v>
+        <v>2558838567.971816</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1569928886080633</v>
+        <v>0.1232684700601653</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04377838398076053</v>
+        <v>0.0469368370564693</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1310169841.300137</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3966989523.419693</v>
+        <v>4205575848.326374</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1447392855508642</v>
+        <v>0.1427513986962687</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03155544690685277</v>
+        <v>0.03291260173248709</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>74</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1983494773.529132</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3195490811.036861</v>
+        <v>2859901962.515135</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08941987892711981</v>
+        <v>0.09796078611554987</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03777910939107017</v>
+        <v>0.04530201523701614</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>75</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1597745462.391848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2803658435.174446</v>
+        <v>2578186873.427994</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1455698968854167</v>
+        <v>0.1108074532706152</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03996585811847749</v>
+        <v>0.04558973290006393</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>34</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1401829160.184987</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1959571353.484569</v>
+        <v>2991829048.588255</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06691963924868513</v>
+        <v>0.06428573542494147</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04968246994590466</v>
+        <v>0.04965511089803664</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>979785741.7561281</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3899237575.389553</v>
+        <v>2974952445.048369</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1748732060070898</v>
+        <v>0.1979893817025337</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02076969275901529</v>
+        <v>0.02759761285826856</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>65</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1949618937.115999</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1724718714.56312</v>
+        <v>1743890896.804724</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1804431420430889</v>
+        <v>0.1670783662200409</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03223742723141329</v>
+        <v>0.03445806833347531</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>862359422.0678539</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5853250901.283475</v>
+        <v>4160143895.536839</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1613034677860846</v>
+        <v>0.1309501764780515</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0436456017916408</v>
+        <v>0.04236286147242072</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>86</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2926625615.991732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3844418794.932647</v>
+        <v>3678091909.935542</v>
       </c>
       <c r="F11" t="n">
-        <v>0.175444933196917</v>
+        <v>0.1254248334682864</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04719949007571585</v>
+        <v>0.04449180662369188</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>84</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1922209399.319921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2842594462.888687</v>
+        <v>2445305296.328203</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1803376564074021</v>
+        <v>0.1528560659371591</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04271283361839687</v>
+        <v>0.04343838138905477</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>72</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1421297235.034471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3691584233.07635</v>
+        <v>4081547676.029552</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06916978847364995</v>
+        <v>0.0953601962144625</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02592343831766375</v>
+        <v>0.02065225911676902</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>68</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1845792187.119148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3574912313.882175</v>
+        <v>3729184722.258064</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1830418774318809</v>
+        <v>0.163794846436549</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04103842894229555</v>
+        <v>0.03389615426004565</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1787456149.734529</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1459142177.48651</v>
+        <v>1127374131.207215</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07796201334943553</v>
+        <v>0.08665988532163449</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03465137169097551</v>
+        <v>0.03892830922959035</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>729571164.9596349</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1825414255.673203</v>
+        <v>2068800950.329648</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07849489081389927</v>
+        <v>0.09522870419208422</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04029088958394902</v>
+        <v>0.04750450085891735</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>31</v>
-      </c>
-      <c r="J16" t="n">
-        <v>912707218.9058468</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3417608749.311005</v>
+        <v>4061879930.384598</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1125411559487887</v>
+        <v>0.1720066309623113</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04081917110198079</v>
+        <v>0.04023438411941883</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>60</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1708804438.031693</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2768986784.14878</v>
+        <v>2717925018.403066</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1853654321337577</v>
+        <v>0.1384615044519683</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02614675809571619</v>
+        <v>0.02935883373560293</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>67</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1384493439.090106</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1302680616.841942</v>
+        <v>828015255.1411867</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1484163987660345</v>
+        <v>0.1546530250714082</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01810122768777287</v>
+        <v>0.02435858673637373</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>651340411.3029417</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2408160098.584634</v>
+        <v>1951043293.089001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.126112513569522</v>
+        <v>0.1575737403417092</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02730143245935144</v>
+        <v>0.01939312760834587</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>33</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1204080032.145078</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2275833059.902574</v>
+        <v>2256836469.624371</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0834620407030983</v>
+        <v>0.07228100514341289</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03883742568795358</v>
+        <v>0.0297563388261712</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1137916539.521027</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2676394303.793468</v>
+        <v>3966820690.651977</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1012400821621448</v>
+        <v>0.13823602801061</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05474035712730683</v>
+        <v>0.05022672607971151</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>56</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1338197232.788438</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1025477652.645921</v>
+        <v>1133327616.210132</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1491969344467302</v>
+        <v>0.1241274723939748</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05485645024728254</v>
+        <v>0.0338668241622964</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>512738892.1889047</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3677471525.795515</v>
+        <v>3970580346.412281</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1416291610995901</v>
+        <v>0.1324704338800379</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02391806069984244</v>
+        <v>0.03002688068113585</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>60</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1838735752.568538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1269508450.600074</v>
+        <v>1321125789.475681</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1195160515075453</v>
+        <v>0.1013230604667991</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02968289049651053</v>
+        <v>0.02057383303160334</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>634754227.2747103</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1276049842.136125</v>
+        <v>1119526637.098242</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08288048558946329</v>
+        <v>0.0781642050602958</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03058992350518265</v>
+        <v>0.02469954273409692</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>638024960.7044464</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3168037980.16894</v>
+        <v>2929331305.332684</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1020421046263913</v>
+        <v>0.1436067705159115</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02475267210911396</v>
+        <v>0.01646845932887024</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>48</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1584019041.527174</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3817184174.342475</v>
+        <v>3322969076.664877</v>
       </c>
       <c r="F28" t="n">
-        <v>0.142510838358069</v>
+        <v>0.1388322293454853</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03591890291189075</v>
+        <v>0.04522517910014751</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>66</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1908592169.301825</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4687117378.279194</v>
+        <v>3856863966.420444</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1172808498484889</v>
+        <v>0.1441346055772505</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04455599489463304</v>
+        <v>0.03456168735677493</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>92</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2343558658.329419</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1979925591.109288</v>
+        <v>1705462072.965466</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1171863523917376</v>
+        <v>0.09947325817820439</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02498914898624423</v>
+        <v>0.03581854048026822</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>989962830.6851107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1418892753.0764</v>
+        <v>912367448.1440768</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1044775510356038</v>
+        <v>0.1078710866625919</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04540034650930434</v>
+        <v>0.04076641307401257</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>709446276.4521064</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1150674816.218346</v>
+        <v>1217665727.101611</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08249997659053526</v>
+        <v>0.1017096966636177</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03475784053573668</v>
+        <v>0.03466940022491252</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>575337404.0604191</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2617458608.909397</v>
+        <v>3123665046.419094</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1536512405422227</v>
+        <v>0.1773529817412759</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05069145682759733</v>
+        <v>0.05293240403035543</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>61</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1308729332.642351</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>979002176.7832438</v>
+        <v>1401696699.648614</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1075077084614851</v>
+        <v>0.08928693107644364</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02549789218526401</v>
+        <v>0.02090028928854689</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>489501129.7163541</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1314072018.646346</v>
+        <v>1009318426.446235</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07506123458361162</v>
+        <v>0.1035764146189407</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02785706380835704</v>
+        <v>0.03788267248167504</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>657035959.0070325</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2828272018.64165</v>
+        <v>2007161174.409114</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1398763243112751</v>
+        <v>0.1768625720570075</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01827361750748114</v>
+        <v>0.02309384300005507</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>51</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1414136004.979214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2319236094.153094</v>
+        <v>2343123178.184193</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06867599960912507</v>
+        <v>0.07193652734353158</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03009381617729867</v>
+        <v>0.03878869619725562</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>54</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1159618118.288146</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2075702762.527461</v>
+        <v>1976960096.621404</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08643417004309847</v>
+        <v>0.09361680318060164</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02822992696149655</v>
+        <v>0.03937565092243468</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1037851349.176958</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1821550453.511621</v>
+        <v>1571219426.048474</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1464045021720421</v>
+        <v>0.1500076070252871</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02842121953947697</v>
+        <v>0.02639685185816181</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>910775248.3497816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1213436777.855991</v>
+        <v>1445797357.762167</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1586825776060155</v>
+        <v>0.1116492597838468</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05643690385034296</v>
+        <v>0.04381972081214596</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>606718426.8471652</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2039256895.394245</v>
+        <v>2101910917.220195</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1363928775396782</v>
+        <v>0.122300936141875</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04308992749174184</v>
+        <v>0.03393375227437022</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>51</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1019628518.029662</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3993512804.309041</v>
+        <v>3536678717.563417</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09450731567703417</v>
+        <v>0.1166857372380228</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04619880214513072</v>
+        <v>0.04002773014035887</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1996756430.979607</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3064289486.817725</v>
+        <v>2211753762.492487</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1994027508266398</v>
+        <v>0.1951031795437009</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01758509486922383</v>
+        <v>0.02015457568903562</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>69</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1532144735.307831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2290301748.782629</v>
+        <v>1506164658.454206</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09309521134810182</v>
+        <v>0.08979622967012178</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02936974236061248</v>
+        <v>0.03087400981810465</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1145151038.64009</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1781704436.284995</v>
+        <v>2058064790.348517</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1299186295029096</v>
+        <v>0.1629079691851913</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04937431637001747</v>
+        <v>0.04911735785516719</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>890852186.9803622</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5655286842.055851</v>
+        <v>4084184723.759472</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1633223251188079</v>
+        <v>0.1203296543733419</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04314477804320433</v>
+        <v>0.05417799699152529</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>73</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2827643485.307462</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3554111562.440187</v>
+        <v>3478853022.218088</v>
       </c>
       <c r="F47" t="n">
-        <v>0.180658773934528</v>
+        <v>0.1732732140735791</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0589817209650145</v>
+        <v>0.04747016147960555</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>55</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1777055755.056319</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3330622241.921381</v>
+        <v>4152686864.900477</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06995875523993655</v>
+        <v>0.107626346610317</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03262304937056124</v>
+        <v>0.03665038470283589</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>68</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1665311194.203886</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1852079059.155457</v>
+        <v>1847142537.887471</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1673549330637967</v>
+        <v>0.1454070127825127</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03373283340582132</v>
+        <v>0.0290279504950263</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>926039506.842891</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3086806794.281186</v>
+        <v>3669407042.537508</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1496289592108648</v>
+        <v>0.1750257269891253</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05088296989212784</v>
+        <v>0.04773207143240393</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>70</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1543403450.762837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1099408969.667919</v>
+        <v>1025477920.023176</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1603866310786004</v>
+        <v>0.1846500710704513</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04196656070167033</v>
+        <v>0.04853602902835889</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>549704552.6746268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4224000994.64404</v>
+        <v>5024788488.245477</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1070595786211672</v>
+        <v>0.09385891920664258</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04349921207490592</v>
+        <v>0.0529768573630698</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>84</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2112000540.599298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2724341672.666071</v>
+        <v>3618135454.75058</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1447757220174088</v>
+        <v>0.1681374718230197</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03473090971769902</v>
+        <v>0.02536634320740402</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>59</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1362170887.808165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4887775455.2167</v>
+        <v>3179938016.88453</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1056968077386689</v>
+        <v>0.1098023330838752</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04917352691805567</v>
+        <v>0.03777326805196377</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>67</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2443887861.389673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4034200670.170661</v>
+        <v>3247105950.071786</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1880114234091395</v>
+        <v>0.2055724045137382</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02402794403312537</v>
+        <v>0.022438963062508</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>57</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2017100311.509102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1243897166.686162</v>
+        <v>1875431516.653742</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1004696727499711</v>
+        <v>0.1292717153777708</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05706732043150304</v>
+        <v>0.03613286169866892</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>621948663.5451072</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4271360927.273855</v>
+        <v>4556223917.652977</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1726768055513954</v>
+        <v>0.1184944877886188</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02611528896613311</v>
+        <v>0.0184538554668666</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>66</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2135680574.772281</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1244189003.028758</v>
+        <v>1760419180.5231</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1368729626314808</v>
+        <v>0.1305291591052717</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03189966574142732</v>
+        <v>0.03890543295228317</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>622094555.9620911</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4397518818.904652</v>
+        <v>4128892200.243772</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1092415067507632</v>
+        <v>0.08696029287072386</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04536755713549137</v>
+        <v>0.03088211635703684</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>57</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2198759366.186859</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3313742733.194373</v>
+        <v>2843501979.365159</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1259965020948129</v>
+        <v>0.1622625629442393</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02082832542967805</v>
+        <v>0.0301035409957113</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>63</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1656871469.838468</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2277276807.34271</v>
+        <v>2982162264.612747</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1217972159388508</v>
+        <v>0.173558035347052</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02793324328267368</v>
+        <v>0.02053688143658395</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>73</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1138638452.27498</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1617868666.559742</v>
+        <v>1937693862.833784</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1288126203745433</v>
+        <v>0.1673448946137157</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03032640388915226</v>
+        <v>0.04480262143193089</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>808934334.0220947</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4053868735.385739</v>
+        <v>4968975429.616112</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06558218094326948</v>
+        <v>0.08760702633383273</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03798722150008874</v>
+        <v>0.03263979602725777</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>58</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2026934427.643227</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5522890850.642509</v>
+        <v>4348873136.111774</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1167993432278313</v>
+        <v>0.1734536858068307</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03377139911000107</v>
+        <v>0.02689347725401994</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>63</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2761445568.27289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4110725938.330752</v>
+        <v>5484259609.283464</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1650029675269923</v>
+        <v>0.1164642963835483</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01990723257351521</v>
+        <v>0.02019411873926746</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>73</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2055362981.12621</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4520349165.110764</v>
+        <v>4512483777.676084</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1006109180442144</v>
+        <v>0.1417227986540332</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04939957697848311</v>
+        <v>0.03605675435051408</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>59</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2260174583.99865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2344881559.165692</v>
+        <v>2270422689.763123</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07230655844762393</v>
+        <v>0.09022436261478807</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03215386872327163</v>
+        <v>0.04861921950590665</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>66</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1172440853.293412</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6095169649.733199</v>
+        <v>3957841626.537032</v>
       </c>
       <c r="F68" t="n">
-        <v>0.159380933545676</v>
+        <v>0.09749977480475558</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03493211286690726</v>
+        <v>0.04141102769209697</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>65</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3047584947.594601</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2456497079.883227</v>
+        <v>1499425215.215277</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1762806980566221</v>
+        <v>0.1360465995813494</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05765838893109081</v>
+        <v>0.05213582428674761</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1228248603.875243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2349030233.72501</v>
+        <v>2805235135.351521</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07999921356183214</v>
+        <v>0.07282493269359103</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04039717862937934</v>
+        <v>0.04638200238406694</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>58</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1174515051.475327</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3933589964.964964</v>
+        <v>4201370396.242105</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1354817729295265</v>
+        <v>0.1508844052160205</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0209742643874071</v>
+        <v>0.02638686054710949</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>74</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1966795008.553768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1856436835.923</v>
+        <v>2041405008.98123</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06553138494377519</v>
+        <v>0.06731339521616997</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03838440434666267</v>
+        <v>0.04212978015166851</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>928218387.4388827</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3230437741.384336</v>
+        <v>2847606794.126093</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08121664999044491</v>
+        <v>0.08877327952956802</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03759057746088103</v>
+        <v>0.04105039155294633</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>78</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1615218845.550513</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3618370824.087164</v>
+        <v>2418373131.520592</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1597866065537855</v>
+        <v>0.1215101075731928</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03423436579583045</v>
+        <v>0.02882250964024052</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>70</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1809185423.930621</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2217877236.901202</v>
+        <v>2307185597.034866</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1347023883565382</v>
+        <v>0.1449177885266057</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03745524273461724</v>
+        <v>0.02748225111005859</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1108938562.142973</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4550596111.066297</v>
+        <v>5230201087.870012</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1051856194091896</v>
+        <v>0.1078061992197856</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03272656469494941</v>
+        <v>0.03371325019754876</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2275298063.286426</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1753751422.152428</v>
+        <v>1430868406.625417</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1419509191068858</v>
+        <v>0.1161098015608655</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02175196737329896</v>
+        <v>0.0308184775341114</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>876875736.2120109</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3950853923.315725</v>
+        <v>3674403071.557732</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08832230133780306</v>
+        <v>0.1084751479932367</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04603982684442324</v>
+        <v>0.04637713369049914</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>71</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1975426930.896344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1230948681.827059</v>
+        <v>1680239655.284051</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1651941759328521</v>
+        <v>0.1579366613423981</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02685626070714099</v>
+        <v>0.03419525181601022</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>615474328.0650134</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3946797063.856164</v>
+        <v>4523506673.927169</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08413407439792479</v>
+        <v>0.08239439028033405</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02607943878938229</v>
+        <v>0.03621324929365791</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>43</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1973398528.726306</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3301223084.180016</v>
+        <v>3436706478.298604</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09349224039211279</v>
+        <v>0.1045438195659389</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02377825954869777</v>
+        <v>0.02391131071849739</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1650611479.35193</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3592393090.162199</v>
+        <v>4407516012.882143</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1717097210274909</v>
+        <v>0.1999529669461175</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02285763354417999</v>
+        <v>0.02767248272383776</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>76</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1796196607.565692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2172911192.152612</v>
+        <v>1942323684.058279</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1316789772877871</v>
+        <v>0.1416047548816309</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04318562795225025</v>
+        <v>0.03871971441508591</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1086455602.924467</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2564748191.140219</v>
+        <v>1920993514.780289</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08389329202983974</v>
+        <v>0.07317202232674573</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04979041092142941</v>
+        <v>0.03949176823349623</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1282374017.891192</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2783447425.18766</v>
+        <v>3045351526.46716</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1329011754918868</v>
+        <v>0.1347950365262216</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04854193501877652</v>
+        <v>0.05568780844840649</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>77</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1391723748.81036</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1710057359.410703</v>
+        <v>2345708728.407335</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1707940663325071</v>
+        <v>0.1109120836134674</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02588708440747538</v>
+        <v>0.01883924680686919</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>27</v>
-      </c>
-      <c r="J86" t="n">
-        <v>855028667.0030111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1062755706.172764</v>
+        <v>1168065987.927376</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1194660962522556</v>
+        <v>0.1415353203515948</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04148792187898113</v>
+        <v>0.03684336694717354</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>531377873.492451</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3595179055.946928</v>
+        <v>2261275276.845902</v>
       </c>
       <c r="F88" t="n">
-        <v>0.148337415210298</v>
+        <v>0.1591365430382205</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03994559126473497</v>
+        <v>0.03959380120379856</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>81</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1797589617.226626</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3129543430.505323</v>
+        <v>2597003227.771142</v>
       </c>
       <c r="F89" t="n">
-        <v>0.158524792613097</v>
+        <v>0.1233288905178553</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03345876152020072</v>
+        <v>0.03645732811327452</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>69</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1564771743.84217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1612438973.798476</v>
+        <v>2164426578.036414</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09830994162502615</v>
+        <v>0.1241940064655136</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04203976758818899</v>
+        <v>0.043113811077575</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>806219486.2194823</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1830362960.315163</v>
+        <v>1773004433.256341</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1524590803219441</v>
+        <v>0.1477993243290524</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06056401840376881</v>
+        <v>0.04699551968886052</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>915181475.0300642</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1903021192.306914</v>
+        <v>2304809128.010828</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1002747492368429</v>
+        <v>0.08096758703670127</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04085969417217628</v>
+        <v>0.03640580982745158</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>50</v>
-      </c>
-      <c r="J92" t="n">
-        <v>951510535.0272844</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4096418456.602379</v>
+        <v>3391939278.534561</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1033583539348188</v>
+        <v>0.1424902080362891</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04291885550555251</v>
+        <v>0.03498676666349797</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>62</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2048209222.645686</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2429962126.696389</v>
+        <v>2116890327.39923</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1420176494754063</v>
+        <v>0.1431948240526762</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02832016718876251</v>
+        <v>0.02812127165832994</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1214981117.635373</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2973985000.923207</v>
+        <v>2328711231.715681</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1129587872248993</v>
+        <v>0.08732404661187147</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03988653490872737</v>
+        <v>0.03192349802096853</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>48</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1486992502.063728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2310193877.224135</v>
+        <v>1642031036.482726</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1338220201523049</v>
+        <v>0.1065146380740211</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0439114071159059</v>
+        <v>0.03921871355716986</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1155096892.453208</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3679246933.533412</v>
+        <v>5218854986.312261</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1393958516188214</v>
+        <v>0.1662976770236698</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02755607913733624</v>
+        <v>0.01907804806089335</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>66</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1839623497.337914</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3799610660.769908</v>
+        <v>3233734527.383275</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09431845227172087</v>
+        <v>0.1073907438188839</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03043691768926868</v>
+        <v>0.02881258449388686</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>54</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1899805369.277496</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3153987354.332875</v>
+        <v>3296972708.678668</v>
       </c>
       <c r="F99" t="n">
-        <v>0.114420431105622</v>
+        <v>0.122421167142183</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03169703546077538</v>
+        <v>0.03050852373791245</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>62</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1576993674.233611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4419176488.435425</v>
+        <v>4774295037.838811</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1616763879429172</v>
+        <v>0.1372444361571109</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01857298116118398</v>
+        <v>0.02617555376443112</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>64</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2209588348.325301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3344199253.112717</v>
+        <v>2701489454.07192</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2135286805103947</v>
+        <v>0.191860635720814</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0582810956100545</v>
+        <v>0.0394180091118085</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>83</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1672099761.085565</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_204.xlsx
+++ b/output/fit_clients/fit_round_204.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2360305243.253157</v>
+        <v>2270885666.783987</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08280012304391754</v>
+        <v>0.08303612022184713</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03899508989373926</v>
+        <v>0.04242069982373106</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2558838567.971816</v>
+        <v>1828610533.890364</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1232684700601653</v>
+        <v>0.1579999114696629</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0469368370564693</v>
+        <v>0.04370298071751676</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4205575848.326374</v>
+        <v>3614701023.688514</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1427513986962687</v>
+        <v>0.1538180755679267</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03291260173248709</v>
+        <v>0.02437227890230081</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2859901962.515135</v>
+        <v>4175259101.822621</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09796078611554987</v>
+        <v>0.08299994951774763</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04530201523701614</v>
+        <v>0.03262798335440967</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2578186873.427994</v>
+        <v>2277203177.782153</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1108074532706152</v>
+        <v>0.1390401203345429</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04558973290006393</v>
+        <v>0.04377741582357946</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2991829048.588255</v>
+        <v>2371196865.27981</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06428573542494147</v>
+        <v>0.08490517702019088</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04965511089803664</v>
+        <v>0.03875408911744852</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2974952445.048369</v>
+        <v>3417100680.436938</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1979893817025337</v>
+        <v>0.1702933603137061</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02759761285826856</v>
+        <v>0.02620938732497096</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1743890896.804724</v>
+        <v>1800456849.274718</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1670783662200409</v>
+        <v>0.1361439381692028</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03445806833347531</v>
+        <v>0.02382242556780899</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,19 +704,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4160143895.536839</v>
+        <v>3920587093.033039</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1309501764780515</v>
+        <v>0.1613994856778719</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04236286147242072</v>
+        <v>0.04162585628423136</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3678091909.935542</v>
+        <v>2638208367.644604</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1254248334682864</v>
+        <v>0.1762227765388312</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04449180662369188</v>
+        <v>0.03427465261795869</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2445305296.328203</v>
+        <v>2693282490.990923</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1528560659371591</v>
+        <v>0.1714841440632345</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04343838138905477</v>
+        <v>0.04117936060740467</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4081547676.029552</v>
+        <v>4896151365.029902</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0953601962144625</v>
+        <v>0.06707040212671758</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02065225911676902</v>
+        <v>0.02287407429741698</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3729184722.258064</v>
+        <v>3870229846.504398</v>
       </c>
       <c r="F14" t="n">
-        <v>0.163794846436549</v>
+        <v>0.1191901716216276</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03389615426004565</v>
+        <v>0.02888433625172455</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1127374131.207215</v>
+        <v>1502634305.508298</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08665988532163449</v>
+        <v>0.1076737489384131</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03892830922959035</v>
+        <v>0.03082797542462106</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2068800950.329648</v>
+        <v>2069540460.716876</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09522870419208422</v>
+        <v>0.07137185545715445</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04750450085891735</v>
+        <v>0.03985010735011844</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4061879930.384598</v>
+        <v>3497646688.845841</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1720066309623113</v>
+        <v>0.1421585280685731</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04023438411941883</v>
+        <v>0.04620390199668273</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2717925018.403066</v>
+        <v>3674550080.167229</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1384615044519683</v>
+        <v>0.1528883842654</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02935883373560293</v>
+        <v>0.02740505815155382</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>828015255.1411867</v>
+        <v>1325095440.072596</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1546530250714082</v>
+        <v>0.1336527096862962</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02435858673637373</v>
+        <v>0.02233066826541383</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1951043293.089001</v>
+        <v>2307591795.67898</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1575737403417092</v>
+        <v>0.1416122249764143</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01939312760834587</v>
+        <v>0.02817051819096246</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2256836469.624371</v>
+        <v>2210783725.34991</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07228100514341289</v>
+        <v>0.08589674630555257</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0297563388261712</v>
+        <v>0.04168174438086875</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3966820690.651977</v>
+        <v>3223364281.410591</v>
       </c>
       <c r="F22" t="n">
-        <v>0.13823602801061</v>
+        <v>0.1429444841985256</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05022672607971151</v>
+        <v>0.05657657559038114</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1133327616.210132</v>
+        <v>1237469954.333981</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1241274723939748</v>
+        <v>0.1713654829273512</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0338668241622964</v>
+        <v>0.05153017578431365</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3970580346.412281</v>
+        <v>3585111452.541071</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1324704338800379</v>
+        <v>0.09176490749496662</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03002688068113585</v>
+        <v>0.03270029186362878</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1321125789.475681</v>
+        <v>942644310.7925198</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1013230604667991</v>
+        <v>0.08056378246200048</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02057383303160334</v>
+        <v>0.02661598495424965</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1119526637.098242</v>
+        <v>1369109472.868929</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0781642050602958</v>
+        <v>0.09228249442839562</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02469954273409692</v>
+        <v>0.03337811487234463</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2929331305.332684</v>
+        <v>3186752039.806695</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1436067705159115</v>
+        <v>0.1551357141751529</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01646845932887024</v>
+        <v>0.02301109025455174</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3322969076.664877</v>
+        <v>3011023596.7822</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1388322293454853</v>
+        <v>0.1178954578769955</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04522517910014751</v>
+        <v>0.03025595454633603</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3856863966.420444</v>
+        <v>3916915128.509273</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1441346055772505</v>
+        <v>0.1319162277041947</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03456168735677493</v>
+        <v>0.03527936631742604</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1705462072.965466</v>
+        <v>1563880615.957292</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09947325817820439</v>
+        <v>0.09603398422124412</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03581854048026822</v>
+        <v>0.03224006148079706</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>912367448.1440768</v>
+        <v>1199235858.886729</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1078710866625919</v>
+        <v>0.08985277796199394</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04076641307401257</v>
+        <v>0.04681628140975636</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1217665727.101611</v>
+        <v>1324177375.972136</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1017096966636177</v>
+        <v>0.103215738361708</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03466940022491252</v>
+        <v>0.02354649121314677</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3123665046.419094</v>
+        <v>1998583804.069488</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1773529817412759</v>
+        <v>0.1614964607382535</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05293240403035543</v>
+        <v>0.0601933762809354</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1401696699.648614</v>
+        <v>1250858257.447167</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08928693107644364</v>
+        <v>0.07931907347091233</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02090028928854689</v>
+        <v>0.01992879372962724</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1009318426.446235</v>
+        <v>952565404.02844</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1035764146189407</v>
+        <v>0.09299551989761567</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03788267248167504</v>
+        <v>0.03138329042502397</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2007161174.409114</v>
+        <v>2974369260.213696</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1768625720570075</v>
+        <v>0.1340747850491287</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02309384300005507</v>
+        <v>0.02798645713912944</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2343123178.184193</v>
+        <v>2754626581.996615</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07193652734353158</v>
+        <v>0.1121516684045047</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03878869619725562</v>
+        <v>0.04193831103723238</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1976960096.621404</v>
+        <v>1828258987.475025</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09361680318060164</v>
+        <v>0.08207623227932132</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03937565092243468</v>
+        <v>0.0351446880829015</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1571219426.048474</v>
+        <v>1738341006.530881</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1500076070252871</v>
+        <v>0.1675887178936864</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02639685185816181</v>
+        <v>0.02506743294309417</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1445797357.762167</v>
+        <v>1573601442.538111</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1116492597838468</v>
+        <v>0.1587244422211381</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04381972081214596</v>
+        <v>0.05697349523809043</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2101910917.220195</v>
+        <v>2512402882.667993</v>
       </c>
       <c r="F41" t="n">
-        <v>0.122300936141875</v>
+        <v>0.165963611060814</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03393375227437022</v>
+        <v>0.03020756964624349</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3536678717.563417</v>
+        <v>2705414042.390687</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1166857372380228</v>
+        <v>0.09850213677647011</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04002773014035887</v>
+        <v>0.03243391809404635</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2211753762.492487</v>
+        <v>2197158286.765382</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1951031795437009</v>
+        <v>0.144643224463053</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02015457568903562</v>
+        <v>0.01630219102672964</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1506164658.454206</v>
+        <v>2057906955.739617</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08979622967012178</v>
+        <v>0.09889112852282227</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03087400981810465</v>
+        <v>0.02716395259741349</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2058064790.348517</v>
+        <v>2339344323.747092</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1629079691851913</v>
+        <v>0.1411124521292271</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04911735785516719</v>
+        <v>0.03896187548027163</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4084184723.759472</v>
+        <v>4801461431.131188</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1203296543733419</v>
+        <v>0.1693893846132349</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05417799699152529</v>
+        <v>0.05321692776653947</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3478853022.218088</v>
+        <v>4694590065.860728</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1732732140735791</v>
+        <v>0.1722317604588064</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04747016147960555</v>
+        <v>0.04607794306628499</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4152686864.900477</v>
+        <v>4551066764.327952</v>
       </c>
       <c r="F48" t="n">
-        <v>0.107626346610317</v>
+        <v>0.07873152968504038</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03665038470283589</v>
+        <v>0.028845181051912</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1847142537.887471</v>
+        <v>1763154692.270486</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1454070127825127</v>
+        <v>0.1760981866928972</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0290279504950263</v>
+        <v>0.03873504713867043</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3669407042.537508</v>
+        <v>3373815917.959273</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1750257269891253</v>
+        <v>0.1537965136963018</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04773207143240393</v>
+        <v>0.03651210490318239</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1025477920.023176</v>
+        <v>1163981321.949909</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1846500710704513</v>
+        <v>0.1312925891420972</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04853602902835889</v>
+        <v>0.04384225681026732</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5024788488.245477</v>
+        <v>4639437936.185904</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09385891920664258</v>
+        <v>0.08405254987636224</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0529768573630698</v>
+        <v>0.05684000850173764</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3618135454.75058</v>
+        <v>3071603371.48457</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1681374718230197</v>
+        <v>0.1569536391962319</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02536634320740402</v>
+        <v>0.02579810926329703</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3179938016.88453</v>
+        <v>4708884646.720103</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1098023330838752</v>
+        <v>0.1440452969193038</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03777326805196377</v>
+        <v>0.04791563088378214</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3247105950.071786</v>
+        <v>3695653700.410016</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2055724045137382</v>
+        <v>0.1681642399279771</v>
       </c>
       <c r="G55" t="n">
-        <v>0.022438963062508</v>
+        <v>0.02926495968903026</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1875431516.653742</v>
+        <v>1575758994.453159</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1292717153777708</v>
+        <v>0.132866293830909</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03613286169866892</v>
+        <v>0.0362969222174551</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4556223917.652977</v>
+        <v>3845350435.757317</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1184944877886188</v>
+        <v>0.1752256111607141</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0184538554668666</v>
+        <v>0.02349574815448937</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1760419180.5231</v>
+        <v>1305011648.4976</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1305291591052717</v>
+        <v>0.1898428074090084</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03890543295228317</v>
+        <v>0.0312230678292435</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4128892200.243772</v>
+        <v>4057180214.591661</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08696029287072386</v>
+        <v>0.119136473252179</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03088211635703684</v>
+        <v>0.03388245882236618</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2843501979.365159</v>
+        <v>3442587179.960039</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1622625629442393</v>
+        <v>0.1777940012895191</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0301035409957113</v>
+        <v>0.03098724099873383</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2982162264.612747</v>
+        <v>3022818393.266548</v>
       </c>
       <c r="F61" t="n">
-        <v>0.173558035347052</v>
+        <v>0.1104237588757287</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02053688143658395</v>
+        <v>0.02255082265145596</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1937693862.833784</v>
+        <v>1791368532.474842</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1673448946137157</v>
+        <v>0.1441124361276074</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04480262143193089</v>
+        <v>0.03076701485565127</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4968975429.616112</v>
+        <v>5110423397.836626</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08760702633383273</v>
+        <v>0.08717060402628776</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03263979602725777</v>
+        <v>0.0376714029361086</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4348873136.111774</v>
+        <v>5310328582.613055</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1734536858068307</v>
+        <v>0.1185447976820462</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02689347725401994</v>
+        <v>0.0350626640274778</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5484259609.283464</v>
+        <v>4269567188.150354</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1164642963835483</v>
+        <v>0.1726630589432536</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02019411873926746</v>
+        <v>0.02768468279113816</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4512483777.676084</v>
+        <v>3708538261.185999</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1417227986540332</v>
+        <v>0.1395040369687212</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03605675435051408</v>
+        <v>0.04898066071264887</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2270422689.763123</v>
+        <v>2932724623.200283</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09022436261478807</v>
+        <v>0.1027393689357404</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04861921950590665</v>
+        <v>0.0388824576721919</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3957841626.537032</v>
+        <v>4241488134.528305</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09749977480475558</v>
+        <v>0.101590771808747</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04141102769209697</v>
+        <v>0.0450870237310861</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1499425215.215277</v>
+        <v>2289467813.954613</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1360465995813494</v>
+        <v>0.1704641212342218</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05213582428674761</v>
+        <v>0.03806928553300172</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2805235135.351521</v>
+        <v>3037084773.859119</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07282493269359103</v>
+        <v>0.07251730531877758</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04638200238406694</v>
+        <v>0.03511343213102452</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4201370396.242105</v>
+        <v>4990887689.963429</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1508844052160205</v>
+        <v>0.1237904377883777</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02638686054710949</v>
+        <v>0.02265255765419725</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2041405008.98123</v>
+        <v>1975845574.064368</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06731339521616997</v>
+        <v>0.06957714630314249</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04212978015166851</v>
+        <v>0.04639679466652206</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2847606794.126093</v>
+        <v>3027036861.778491</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08877327952956802</v>
+        <v>0.0987601690030363</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04105039155294633</v>
+        <v>0.04735198475847782</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2418373131.520592</v>
+        <v>2580361235.075193</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1215101075731928</v>
+        <v>0.1691430456964523</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02882250964024052</v>
+        <v>0.02250336539423419</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2307185597.034866</v>
+        <v>1597587125.997618</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1449177885266057</v>
+        <v>0.1396650707970822</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02748225111005859</v>
+        <v>0.02861977374454792</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5230201087.870012</v>
+        <v>4757674862.099326</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1078061992197856</v>
+        <v>0.07543166953330742</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03371325019754876</v>
+        <v>0.02693937362603531</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1430868406.625417</v>
+        <v>2174698112.339771</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1161098015608655</v>
+        <v>0.1583286411166067</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0308184775341114</v>
+        <v>0.01964364749874649</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3674403071.557732</v>
+        <v>3184385794.540537</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1084751479932367</v>
+        <v>0.127837205807285</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04637713369049914</v>
+        <v>0.04333000034895818</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1680239655.284051</v>
+        <v>1250434629.210708</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1579366613423981</v>
+        <v>0.1198172587926476</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03419525181601022</v>
+        <v>0.03582351368120212</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4523506673.927169</v>
+        <v>5262017648.220458</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08239439028033405</v>
+        <v>0.07725993761460619</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03621324929365791</v>
+        <v>0.02867595945394482</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3436706478.298604</v>
+        <v>4435959409.484278</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1045438195659389</v>
+        <v>0.1166738572534481</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02391131071849739</v>
+        <v>0.02888139823253273</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4407516012.882143</v>
+        <v>4622748079.984021</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1999529669461175</v>
+        <v>0.1731780244600103</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02767248272383776</v>
+        <v>0.029148610600415</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1942323684.058279</v>
+        <v>2388584480.761503</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1416047548816309</v>
+        <v>0.1191362973615439</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03871971441508591</v>
+        <v>0.03837919821557253</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1920993514.780289</v>
+        <v>2560796525.281369</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07317202232674573</v>
+        <v>0.1104759977571316</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03949176823349623</v>
+        <v>0.05052307316242577</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3045351526.46716</v>
+        <v>2726462689.190923</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1347950365262216</v>
+        <v>0.1120274989430232</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05568780844840649</v>
+        <v>0.03846434085539826</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2345708728.407335</v>
+        <v>2637755580.335032</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1109120836134674</v>
+        <v>0.1362946042205047</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01883924680686919</v>
+        <v>0.02304168186396792</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1168065987.927376</v>
+        <v>1140805849.664018</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1415353203515948</v>
+        <v>0.1722859252349961</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03684336694717354</v>
+        <v>0.03542523906417951</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2261275276.845902</v>
+        <v>3547763152.667883</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1591365430382205</v>
+        <v>0.1282410718336114</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03959380120379856</v>
+        <v>0.02556666913226966</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2597003227.771142</v>
+        <v>3323198309.552991</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1233288905178553</v>
+        <v>0.1541121221791083</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03645732811327452</v>
+        <v>0.03867611416830843</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2164426578.036414</v>
+        <v>1822875890.45496</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1241940064655136</v>
+        <v>0.1155915411883845</v>
       </c>
       <c r="G90" t="n">
-        <v>0.043113811077575</v>
+        <v>0.03511867360194229</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1773004433.256341</v>
+        <v>1296473643.771965</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1477993243290524</v>
+        <v>0.1295278613647969</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04699551968886052</v>
+        <v>0.05771056280538046</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2304809128.010828</v>
+        <v>2709107506.889582</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08096758703670127</v>
+        <v>0.07975662073780629</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03640580982745158</v>
+        <v>0.04319377911386245</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3391939278.534561</v>
+        <v>3780771719.838374</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1424902080362891</v>
+        <v>0.09987702718252305</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03498676666349797</v>
+        <v>0.03582914630365506</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2116890327.39923</v>
+        <v>2398157979.635238</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1431948240526762</v>
+        <v>0.1491451840004416</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02812127165832994</v>
+        <v>0.03140522821240299</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2328711231.715681</v>
+        <v>3025225594.152396</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08732404661187147</v>
+        <v>0.1189358022859854</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03192349802096853</v>
+        <v>0.03714722250270041</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1642031036.482726</v>
+        <v>1875737883.616485</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1065146380740211</v>
+        <v>0.1205089578741816</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03921871355716986</v>
+        <v>0.03815529405124143</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5218854986.312261</v>
+        <v>4206521040.070218</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1662976770236698</v>
+        <v>0.1122468234163141</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01907804806089335</v>
+        <v>0.02022337412538355</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3174,13 +3174,13 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3233734527.383275</v>
+        <v>3216923300.45846</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1073907438188839</v>
+        <v>0.1038227112077634</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02881258449388686</v>
+        <v>0.02646039404074007</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3296972708.678668</v>
+        <v>3330916408.168546</v>
       </c>
       <c r="F99" t="n">
-        <v>0.122421167142183</v>
+        <v>0.1442625303703202</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03050852373791245</v>
+        <v>0.02291378679603658</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4774295037.838811</v>
+        <v>3000352680.176206</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1372444361571109</v>
+        <v>0.1722597519382114</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02617555376443112</v>
+        <v>0.02581656343690178</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2701489454.07192</v>
+        <v>2619535183.303481</v>
       </c>
       <c r="F101" t="n">
-        <v>0.191860635720814</v>
+        <v>0.2149667904643573</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0394180091118085</v>
+        <v>0.03765166232344086</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_204.xlsx
+++ b/output/fit_clients/fit_round_204.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2270885666.783987</v>
+        <v>2054479263.276761</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08303612022184713</v>
+        <v>0.07558100050016425</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04242069982373106</v>
+        <v>0.02760604281000449</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1828610533.890364</v>
+        <v>1717437700.056421</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1579999114696629</v>
+        <v>0.1698562864031712</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04370298071751676</v>
+        <v>0.03342277824603845</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3614701023.688514</v>
+        <v>4303288187.083902</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1538180755679267</v>
+        <v>0.1470311202073399</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02437227890230081</v>
+        <v>0.02545180992823792</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>112</v>
+      </c>
+      <c r="J4" t="n">
+        <v>203</v>
+      </c>
+      <c r="K4" t="n">
+        <v>115.9703944732218</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4175259101.822621</v>
+        <v>2922380230.628504</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08299994951774763</v>
+        <v>0.06989643135923244</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03262798335440967</v>
+        <v>0.04821297906868608</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>203</v>
+      </c>
+      <c r="K5" t="n">
+        <v>84.86155775355925</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2277203177.782153</v>
+        <v>1963121971.958254</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1390401203345429</v>
+        <v>0.1247724124974116</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04377741582357946</v>
+        <v>0.0557527986893887</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2371196865.27981</v>
+        <v>2226488103.079177</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08490517702019088</v>
+        <v>0.06190716092264408</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03875408911744852</v>
+        <v>0.04420194822648599</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3417100680.436938</v>
+        <v>3530094103.553814</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1702933603137061</v>
+        <v>0.1998367154312829</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02620938732497096</v>
+        <v>0.02178088247979626</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>57</v>
+      </c>
+      <c r="J8" t="n">
+        <v>199</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1800456849.274718</v>
+        <v>1992013302.097937</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1361439381692028</v>
+        <v>0.1717862631813362</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02382242556780899</v>
+        <v>0.02815567749217577</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3920587093.033039</v>
+        <v>4901567036.349205</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1613994856778719</v>
+        <v>0.1972481784953798</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04162585628423136</v>
+        <v>0.04344194571985432</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>186</v>
+      </c>
+      <c r="J10" t="n">
+        <v>204</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2638208367.644604</v>
+        <v>3034468441.59588</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1762227765388312</v>
+        <v>0.1695532816206522</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03427465261795869</v>
+        <v>0.03345358286653581</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>84</v>
+      </c>
+      <c r="J11" t="n">
+        <v>203</v>
+      </c>
+      <c r="K11" t="n">
+        <v>86.16818614268517</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2693282490.990923</v>
+        <v>3078268409.596334</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1714841440632345</v>
+        <v>0.1502010472117052</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04117936060740467</v>
+        <v>0.04180637903996564</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4896151365.029902</v>
+        <v>5084978774.210777</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06707040212671758</v>
+        <v>0.06628882682448782</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02287407429741698</v>
+        <v>0.03109360588478395</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>101</v>
+      </c>
+      <c r="J13" t="n">
+        <v>204</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,17 +927,24 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3870229846.504398</v>
+        <v>3010834509.52219</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1191901716216276</v>
+        <v>0.1498717990994016</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02888433625172455</v>
+        <v>0.03778393999179946</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>39</v>
+      </c>
+      <c r="J14" t="n">
+        <v>201</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1502634305.508298</v>
+        <v>1227405061.564695</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1076737489384131</v>
+        <v>0.07870259740508519</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03082797542462106</v>
+        <v>0.03531895883698635</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2069540460.716876</v>
+        <v>2776918002.086695</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07137185545715445</v>
+        <v>0.08319720962261887</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03985010735011844</v>
+        <v>0.03635393809377659</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3497646688.845841</v>
+        <v>4730901986.445711</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1421585280685731</v>
+        <v>0.1082097136451489</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04620390199668273</v>
+        <v>0.05069191223306935</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>98</v>
+      </c>
+      <c r="J17" t="n">
+        <v>203</v>
+      </c>
+      <c r="K17" t="n">
+        <v>110.0307223762735</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3674550080.167229</v>
+        <v>2588177249.560024</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1528883842654</v>
+        <v>0.1757141455994265</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02740505815155382</v>
+        <v>0.02996630641956642</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>52</v>
+      </c>
+      <c r="J18" t="n">
+        <v>201</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1325095440.072596</v>
+        <v>858214800.3526421</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1336527096862962</v>
+        <v>0.1239346734430807</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02233066826541383</v>
+        <v>0.01812789127896875</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1139,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2307591795.67898</v>
+        <v>2410390955.114444</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1416122249764143</v>
+        <v>0.1447138476120713</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02817051819096246</v>
+        <v>0.02713115559732258</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2210783725.34991</v>
+        <v>2066057956.154287</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08589674630555257</v>
+        <v>0.1003277964208924</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04168174438086875</v>
+        <v>0.03506720761543097</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,16 +1209,25 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3223364281.410591</v>
+        <v>2480487697.138143</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1429444841985256</v>
+        <v>0.1098056026972212</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05657657559038114</v>
+        <v>0.05126272907629729</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>52</v>
+      </c>
+      <c r="J22" t="n">
+        <v>203</v>
+      </c>
+      <c r="K22" t="n">
+        <v>48.44785009318042</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1237469954.333981</v>
+        <v>1031684858.057955</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1713654829273512</v>
+        <v>0.1494950511613235</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05153017578431365</v>
+        <v>0.05142203367581129</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3585111452.541071</v>
+        <v>3066816460.111013</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09176490749496662</v>
+        <v>0.09579746762422467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03270029186362878</v>
+        <v>0.02618562007540242</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>64</v>
+      </c>
+      <c r="J24" t="n">
+        <v>203</v>
+      </c>
+      <c r="K24" t="n">
+        <v>74.31829731602099</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1318,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>942644310.7925198</v>
+        <v>1351262454.716987</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08056378246200048</v>
+        <v>0.09085284180042924</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02661598495424965</v>
+        <v>0.02193873136218061</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1369109472.868929</v>
+        <v>1120840757.691943</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09228249442839562</v>
+        <v>0.1210607795798329</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03337811487234463</v>
+        <v>0.03265781653416699</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1388,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3186752039.806695</v>
+        <v>4458168999.986679</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1551357141751529</v>
+        <v>0.129431780231305</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02301109025455174</v>
+        <v>0.02277410764165085</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>80</v>
+      </c>
+      <c r="J27" t="n">
+        <v>204</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1423,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3011023596.7822</v>
+        <v>3512364348.389619</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1178954578769955</v>
+        <v>0.1081606004165854</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03025595454633603</v>
+        <v>0.04579133129332327</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>43</v>
+      </c>
+      <c r="J28" t="n">
+        <v>203</v>
+      </c>
+      <c r="K28" t="n">
+        <v>105.6219346865402</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1454,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3916915128.509273</v>
+        <v>3702687412.168914</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1319162277041947</v>
+        <v>0.0966147852931012</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03527936631742604</v>
+        <v>0.03413123697305154</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>193</v>
+      </c>
+      <c r="J29" t="n">
+        <v>204</v>
+      </c>
+      <c r="K29" t="n">
+        <v>133.9440821204577</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1491,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1563880615.957292</v>
+        <v>2318593670.113863</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09603398422124412</v>
+        <v>0.1142276066362128</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03224006148079706</v>
+        <v>0.03182946937854731</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1532,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1199235858.886729</v>
+        <v>1214085357.202788</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08985277796199394</v>
+        <v>0.1014282272331118</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04681628140975636</v>
+        <v>0.03469873550823861</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1324177375.972136</v>
+        <v>1663846983.303317</v>
       </c>
       <c r="F32" t="n">
-        <v>0.103215738361708</v>
+        <v>0.08818884793531184</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02354649121314677</v>
+        <v>0.02538035081228754</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1596,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1998583804.069488</v>
+        <v>2392050035.95524</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1614964607382535</v>
+        <v>0.1379722706258922</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0601933762809354</v>
+        <v>0.04793416145898874</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1250858257.447167</v>
+        <v>1363799389.497414</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07931907347091233</v>
+        <v>0.0816028975427729</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01992879372962724</v>
+        <v>0.01981955811429289</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1666,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>952565404.02844</v>
+        <v>1155246679.604962</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09299551989761567</v>
+        <v>0.080107316797565</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03138329042502397</v>
+        <v>0.03537613610224464</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2974369260.213696</v>
+        <v>2017393308.114761</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1340747850491287</v>
+        <v>0.1278833794686244</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02798645713912944</v>
+        <v>0.02519523051892916</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1742,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2754626581.996615</v>
+        <v>2090777727.438155</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1121516684045047</v>
+        <v>0.08905315767353719</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04193831103723238</v>
+        <v>0.03322999348750053</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1828258987.475025</v>
+        <v>2129787954.765708</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08207623227932132</v>
+        <v>0.07664969279081067</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0351446880829015</v>
+        <v>0.03579516859995841</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1806,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1738341006.530881</v>
+        <v>1482367804.647985</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1675887178936864</v>
+        <v>0.177780834085483</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02506743294309417</v>
+        <v>0.0235083174639139</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1573601442.538111</v>
+        <v>1110845442.45769</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1587244422211381</v>
+        <v>0.1121113523592615</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05697349523809043</v>
+        <v>0.04639504613564085</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1876,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2512402882.667993</v>
+        <v>2112890253.837476</v>
       </c>
       <c r="F41" t="n">
-        <v>0.165963611060814</v>
+        <v>0.1021049299215476</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03020756964624349</v>
+        <v>0.0411192578713599</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1911,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2705414042.390687</v>
+        <v>2686636026.221715</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09850213677647011</v>
+        <v>0.1172757593183689</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03243391809404635</v>
+        <v>0.03377595840746796</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>81</v>
+      </c>
+      <c r="J42" t="n">
+        <v>202</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2197158286.765382</v>
+        <v>2474303717.783727</v>
       </c>
       <c r="F43" t="n">
-        <v>0.144643224463053</v>
+        <v>0.1631298824289599</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01630219102672964</v>
+        <v>0.0253739748104795</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2057906955.739617</v>
+        <v>1883043391.68352</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09889112852282227</v>
+        <v>0.1009332355720062</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02716395259741349</v>
+        <v>0.02930014328279952</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2339344323.747092</v>
+        <v>1938633608.529145</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1411124521292271</v>
+        <v>0.1539280944115676</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03896187548027163</v>
+        <v>0.04217593574821885</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2057,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4801461431.131188</v>
+        <v>4981401481.882199</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1693893846132349</v>
+        <v>0.1614337647073158</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05321692776653947</v>
+        <v>0.05173669248968669</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>117</v>
+      </c>
+      <c r="J46" t="n">
+        <v>203</v>
+      </c>
+      <c r="K46" t="n">
+        <v>119.510734031692</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2094,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4694590065.860728</v>
+        <v>4668716513.986526</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1722317604588064</v>
+        <v>0.1534192312092039</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04607794306628499</v>
+        <v>0.04177192692423119</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>91</v>
+      </c>
+      <c r="J47" t="n">
+        <v>204</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4551066764.327952</v>
+        <v>4376743951.940035</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07873152968504038</v>
+        <v>0.07575466617785621</v>
       </c>
       <c r="G48" t="n">
-        <v>0.028845181051912</v>
+        <v>0.02481432442973018</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>99</v>
+      </c>
+      <c r="J48" t="n">
+        <v>204</v>
+      </c>
+      <c r="K48" t="n">
+        <v>122.2355964837926</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1763154692.270486</v>
+        <v>1355763161.690225</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1760981866928972</v>
+        <v>0.1297073789962514</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03873504713867043</v>
+        <v>0.02883529688499986</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2201,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3373815917.959273</v>
+        <v>3052729165.47609</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1537965136963018</v>
+        <v>0.1751236338230049</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03651210490318239</v>
+        <v>0.03686863328608559</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>64</v>
+      </c>
+      <c r="J50" t="n">
+        <v>203</v>
+      </c>
+      <c r="K50" t="n">
+        <v>82.05445458191836</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1163981321.949909</v>
+        <v>1386637705.388784</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1312925891420972</v>
+        <v>0.1232501368537764</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04384225681026732</v>
+        <v>0.0373574793392708</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2267,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4639437936.185904</v>
+        <v>4393662838.196319</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08405254987636224</v>
+        <v>0.09814632360407831</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05684000850173764</v>
+        <v>0.04876459865850067</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>139</v>
+      </c>
+      <c r="J52" t="n">
+        <v>204</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3071603371.48457</v>
+        <v>2464751786.691886</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1569536391962319</v>
+        <v>0.2041728428708607</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02579810926329703</v>
+        <v>0.02685330826925825</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>27</v>
+      </c>
+      <c r="J53" t="n">
+        <v>201</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2337,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4708884646.720103</v>
+        <v>4196344162.075185</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1440452969193038</v>
+        <v>0.1442572590780944</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04791563088378214</v>
+        <v>0.03825028961542459</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>105</v>
+      </c>
+      <c r="J54" t="n">
+        <v>204</v>
+      </c>
+      <c r="K54" t="n">
+        <v>121.4952494658293</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2380,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3695653700.410016</v>
+        <v>3441688285.285962</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1681642399279771</v>
+        <v>0.1861750254866224</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02926495968903026</v>
+        <v>0.03160238752488879</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>91</v>
+      </c>
+      <c r="J55" t="n">
+        <v>202</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1575758994.453159</v>
+        <v>1304832657.038028</v>
       </c>
       <c r="F56" t="n">
-        <v>0.132866293830909</v>
+        <v>0.1329562707250779</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0362969222174551</v>
+        <v>0.05158499587292553</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2444,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3845350435.757317</v>
+        <v>3267073273.490896</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1752256111607141</v>
+        <v>0.1163782413515551</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02349574815448937</v>
+        <v>0.02296016557548802</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>81</v>
+      </c>
+      <c r="J57" t="n">
+        <v>202</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1305011648.4976</v>
+        <v>1621339663.787171</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1898428074090084</v>
+        <v>0.168358403578407</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0312230678292435</v>
+        <v>0.02717693730489387</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2520,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4057180214.591661</v>
+        <v>4878760335.527145</v>
       </c>
       <c r="F59" t="n">
-        <v>0.119136473252179</v>
+        <v>0.09845965403943495</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03388245882236618</v>
+        <v>0.03347005773874075</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>98</v>
+      </c>
+      <c r="J59" t="n">
+        <v>204</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3442587179.960039</v>
+        <v>3182304020.618577</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1777940012895191</v>
+        <v>0.1605306247232899</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03098724099873383</v>
+        <v>0.02973932435371773</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>199</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3022818393.266548</v>
+        <v>2483380962.959701</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1104237588757287</v>
+        <v>0.168634236193167</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02255082265145596</v>
+        <v>0.02810119495889437</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1791368532.474842</v>
+        <v>2032461136.669561</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1441124361276074</v>
+        <v>0.1237016992207198</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03076701485565127</v>
+        <v>0.04626469669711079</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5110423397.836626</v>
+        <v>4795306610.228033</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08717060402628776</v>
+        <v>0.07056748670926959</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0376714029361086</v>
+        <v>0.04232298349170308</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>99</v>
+      </c>
+      <c r="J63" t="n">
+        <v>204</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5310328582.613055</v>
+        <v>4028728328.278083</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1185447976820462</v>
+        <v>0.1408607349665561</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0350626640274778</v>
+        <v>0.02784677872710215</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>100</v>
+      </c>
+      <c r="J64" t="n">
+        <v>204</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4269567188.150354</v>
+        <v>4615688225.03483</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1726630589432536</v>
+        <v>0.1083544767324578</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02768468279113816</v>
+        <v>0.02081873466610487</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>164</v>
+      </c>
+      <c r="J65" t="n">
+        <v>203</v>
+      </c>
+      <c r="K65" t="n">
+        <v>120.5702556312258</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3708538261.185999</v>
+        <v>4944800435.613883</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1395040369687212</v>
+        <v>0.1332990729702646</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04898066071264887</v>
+        <v>0.04241710650210329</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>100</v>
+      </c>
+      <c r="J66" t="n">
+        <v>204</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2932724623.200283</v>
+        <v>2569225272.787914</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1027393689357404</v>
+        <v>0.09990141858219223</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0388824576721919</v>
+        <v>0.04133046793330129</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>188</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4241488134.528305</v>
+        <v>5428082557.79666</v>
       </c>
       <c r="F68" t="n">
-        <v>0.101590771808747</v>
+        <v>0.1039214044568167</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0450870237310861</v>
+        <v>0.05177676725969028</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>103</v>
+      </c>
+      <c r="J68" t="n">
+        <v>203</v>
+      </c>
+      <c r="K68" t="n">
+        <v>116.5345814165174</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2289467813.954613</v>
+        <v>2479374086.228725</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1704641212342218</v>
+        <v>0.147558374382266</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03806928553300172</v>
+        <v>0.04284775472635324</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3037084773.859119</v>
+        <v>2514993564.05513</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07251730531877758</v>
+        <v>0.08693237269094087</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03511343213102452</v>
+        <v>0.03814737033815736</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>31</v>
+      </c>
+      <c r="J70" t="n">
+        <v>203</v>
+      </c>
+      <c r="K70" t="n">
+        <v>49.35178308358589</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4990887689.963429</v>
+        <v>4859696728.752097</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1237904377883777</v>
+        <v>0.1658986705495707</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02265255765419725</v>
+        <v>0.02509242989563888</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>156</v>
+      </c>
+      <c r="J71" t="n">
+        <v>204</v>
+      </c>
+      <c r="K71" t="n">
+        <v>121.0497508867345</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1975845574.064368</v>
+        <v>2176295910.481551</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06957714630314249</v>
+        <v>0.08374266690849771</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04639679466652206</v>
+        <v>0.0424074684757447</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3027036861.778491</v>
+        <v>2398829981.454186</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0987601690030363</v>
+        <v>0.09657376328359903</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04735198475847782</v>
+        <v>0.04971473281605858</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>11</v>
+      </c>
+      <c r="J73" t="n">
+        <v>185</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2580361235.075193</v>
+        <v>3869166143.37335</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1691430456964523</v>
+        <v>0.1733468900134972</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02250336539423419</v>
+        <v>0.02665178864743675</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>59</v>
+      </c>
+      <c r="J74" t="n">
+        <v>204</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1597587125.997618</v>
+        <v>1665376994.914313</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1396650707970822</v>
+        <v>0.1066217546972764</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02861977374454792</v>
+        <v>0.02575349189978168</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4757674862.099326</v>
+        <v>4181699080.261644</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07543166953330742</v>
+        <v>0.1100746442026142</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02693937362603531</v>
+        <v>0.02124603797705815</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>93</v>
+      </c>
+      <c r="J76" t="n">
+        <v>204</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2174698112.339771</v>
+        <v>2073678082.115808</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1583286411166067</v>
+        <v>0.1745530325560611</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01964364749874649</v>
+        <v>0.02673360561635663</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3184385794.540537</v>
+        <v>2950457356.021943</v>
       </c>
       <c r="F78" t="n">
-        <v>0.127837205807285</v>
+        <v>0.09724073336406579</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04333000034895818</v>
+        <v>0.04697719787871309</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>102</v>
+      </c>
+      <c r="J78" t="n">
+        <v>203</v>
+      </c>
+      <c r="K78" t="n">
+        <v>77.13518563545905</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1250434629.210708</v>
+        <v>1270332486.503489</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1198172587926476</v>
+        <v>0.151748158989736</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03582351368120212</v>
+        <v>0.02744638326117125</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5262017648.220458</v>
+        <v>5607562998.021567</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07725993761460619</v>
+        <v>0.1078151726048553</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02867595945394482</v>
+        <v>0.0265277433356449</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>99</v>
+      </c>
+      <c r="J80" t="n">
+        <v>204</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4435959409.484278</v>
+        <v>4084681710.75842</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1166738572534481</v>
+        <v>0.1185685462746216</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02888139823253273</v>
+        <v>0.03044980344034383</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>94</v>
+      </c>
+      <c r="J81" t="n">
+        <v>203</v>
+      </c>
+      <c r="K81" t="n">
+        <v>104.3052998228857</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4622748079.984021</v>
+        <v>4536108486.820376</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1731780244600103</v>
+        <v>0.2098723596817286</v>
       </c>
       <c r="G82" t="n">
-        <v>0.029148610600415</v>
+        <v>0.01918064347796308</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>151</v>
+      </c>
+      <c r="J82" t="n">
+        <v>204</v>
+      </c>
+      <c r="K82" t="n">
+        <v>125.6414546659819</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2388584480.761503</v>
+        <v>2384265013.614849</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1191362973615439</v>
+        <v>0.1398667733058928</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03837919821557253</v>
+        <v>0.03917755156202218</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2560796525.281369</v>
+        <v>2485298418.696647</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1104759977571316</v>
+        <v>0.08745484631024295</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05052307316242577</v>
+        <v>0.03378764730633108</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3444,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2726462689.190923</v>
+        <v>2901713455.472318</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1120274989430232</v>
+        <v>0.1798478912015815</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03846434085539826</v>
+        <v>0.03519278437922907</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>29</v>
+      </c>
+      <c r="J85" t="n">
+        <v>203</v>
+      </c>
+      <c r="K85" t="n">
+        <v>80.77826942438118</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2637755580.335032</v>
+        <v>2618246999.295614</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1362946042205047</v>
+        <v>0.1094371712986435</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02304168186396792</v>
+        <v>0.02568554179887063</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1140805849.664018</v>
+        <v>975270977.7712529</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1722859252349961</v>
+        <v>0.1675795598973558</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03542523906417951</v>
+        <v>0.02793481338004463</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3545,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3547763152.667883</v>
+        <v>3681746234.513699</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1282410718336114</v>
+        <v>0.1714941014418783</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02556666913226966</v>
+        <v>0.03726569530018937</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>28</v>
+      </c>
+      <c r="J88" t="n">
+        <v>204</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3323198309.552991</v>
+        <v>2424047405.801589</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1541121221791083</v>
+        <v>0.1073483989881626</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03867611416830843</v>
+        <v>0.03568000861851216</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>14</v>
+      </c>
+      <c r="J89" t="n">
+        <v>190</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3621,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1822875890.45496</v>
+        <v>1950237450.252598</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1155915411883845</v>
+        <v>0.09740105630420116</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03511867360194229</v>
+        <v>0.05193340399573639</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3650,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1296473643.771965</v>
+        <v>1411632054.895299</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1295278613647969</v>
+        <v>0.1747945106199446</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05771056280538046</v>
+        <v>0.04464359180250192</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2709107506.889582</v>
+        <v>2229357194.824032</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07975662073780629</v>
+        <v>0.0943443916573992</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04319377911386245</v>
+        <v>0.0409641432034208</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3726,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3780771719.838374</v>
+        <v>4110721685.005267</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09987702718252305</v>
+        <v>0.09121704057873012</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03582914630365506</v>
+        <v>0.05095523905073298</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>92</v>
+      </c>
+      <c r="J93" t="n">
+        <v>204</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2398157979.635238</v>
+        <v>1649672049.646161</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1491451840004416</v>
+        <v>0.1357048701829311</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03140522821240299</v>
+        <v>0.04087626592209691</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3025225594.152396</v>
+        <v>2312454889.168751</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1189358022859854</v>
+        <v>0.1330848059376547</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03714722250270041</v>
+        <v>0.03423315121228733</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1875737883.616485</v>
+        <v>1767313125.693355</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1205089578741816</v>
+        <v>0.1172298789645816</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03815529405124143</v>
+        <v>0.03209768699420856</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4206521040.070218</v>
+        <v>3355955308.106214</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1122468234163141</v>
+        <v>0.1364752260061546</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02022337412538355</v>
+        <v>0.01799056035561898</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>98</v>
+      </c>
+      <c r="J97" t="n">
+        <v>202</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3216923300.45846</v>
+        <v>2693600825.979682</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1038227112077634</v>
+        <v>0.1275140168002308</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02646039404074007</v>
+        <v>0.02216515431715532</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>51</v>
+      </c>
+      <c r="J98" t="n">
+        <v>202</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3330916408.168546</v>
+        <v>2185007585.338623</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1442625303703202</v>
+        <v>0.1325300728275619</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02291378679603658</v>
+        <v>0.03327627488777235</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3000352680.176206</v>
+        <v>3816634158.638589</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1722597519382114</v>
+        <v>0.1371433579677392</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02581656343690178</v>
+        <v>0.0220250707668326</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>84</v>
+      </c>
+      <c r="J100" t="n">
+        <v>204</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2619535183.303481</v>
+        <v>2720454328.007979</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2149667904643573</v>
+        <v>0.1544108631607892</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03765166232344086</v>
+        <v>0.05262979323942781</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
